--- a/tests/data/input/贷后报告-f16001.xlsx
+++ b/tests/data/input/贷后报告-f16001.xlsx
@@ -1,222 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaobo/Source/Pipes/tests/data/input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB00E687-041C-5643-AB57-52936E9CC96D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>杨也晰</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
-          <t>杨也晰</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>:</t>
+          <t>杨也晰:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>组合渠道中的第一张主表</t>
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
-          <t>杨也晰</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>:</t>
+          <t>杨也晰:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+查询主表用到的条件</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
-          <t>杨也晰</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>:</t>
+          <t>杨也晰:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>查询主表用到的条件</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>杨也晰</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>组合渠道第二张主表对应的查询条件</t>
+组合渠道第二张主表对应的查询条件</t>
         </r>
       </text>
     </comment>
@@ -225,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>用例编号</t>
   </si>
@@ -236,15 +107,6 @@
     <t>用例标题</t>
   </si>
   <si>
-    <t>table_main</t>
-  </si>
-  <si>
-    <t>table_main_subA</t>
-  </si>
-  <si>
-    <t>table_main_subB</t>
-  </si>
-  <si>
     <t>table_main_1</t>
   </si>
   <si>
@@ -272,31 +134,35 @@
     <t>court_owed_owe_laf</t>
   </si>
   <si>
-    <t>court_owed_owe_laf=1</t>
-  </si>
-  <si>
-    <t>unique_name
-unique_id_no</t>
-  </si>
-  <si>
     <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司_01';
 info_court.create_time[0]='2019-01-01 12:01:01';
 info_court.expired_at[0]='2019-12-01 12:01:01';
-info_court.unique_name[1]='上海蓝胖子有限公司_01';
 info_court.create_time[1]='2019-12-02 12:01:01';
-info_court.expired_at[1]='2020-12-01 12:01:01';</t>
+info_court.expired_at[1]='2020-12-01 12:01:01'</t>
   </si>
   <si>
     <t>info_court_arrearage.court_id;
-info_court_arrearage.contract_no[0-0]='160010001010'; info_court_arrearage.contract_no[1-0]='160010001012';</t>
+info_court_arrearage.contract_no[0-0]='160010001010'; info_court_arrearage.contract_no[1-0]='160010001012'</t>
+  </si>
+  <si>
+    <t>court_owed_owe_laf=1</t>
+  </si>
+  <si>
+    <t>unique_name;
+unique_id_no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,41 +174,161 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +337,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -395,27 +567,258 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,8 +828,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -437,40 +849,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="17" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="18" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="21" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="22" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="23" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="24" builtinId="32"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="26" builtinId="42"/>
+    <cellStyle name="Total" xfId="27" builtinId="25"/>
+    <cellStyle name="Output" xfId="28" builtinId="21"/>
+    <cellStyle name="Currency" xfId="29" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="30" builtinId="38"/>
+    <cellStyle name="Note" xfId="31" builtinId="10"/>
+    <cellStyle name="Input" xfId="32" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="33" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="34" builtinId="22"/>
+    <cellStyle name="Good" xfId="35" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="36" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="37" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="39" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
+    <cellStyle name="Title" xfId="41" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="42" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="43" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="48" builtinId="40"/>
+    <cellStyle name="Percent" xfId="49" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFF85606"/>
+      <color rgb="00F85606"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -728,113 +1172,100 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3359375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="63.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="15.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="13.3359375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="63.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.3359375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="20.25" customHeight="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+    </row>
+    <row r="2" ht="70" spans="1:11">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="112">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>16001</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/data/input/贷后报告-f16001.xlsx
+++ b/tests/data/input/贷后报告-f16001.xlsx
@@ -91,12 +91,1092 @@
         </r>
       </text>
     </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道中第一张主表，第二张主表数据依赖前一个渠道，造单元测试数据时不要使用同一家公司</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询主表用到的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨也晰:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组合渠道第二张主表对应的查询条件</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>用例编号</t>
   </si>
@@ -150,6 +1230,137 @@
   <si>
     <t>unique_name;
 unique_id_no</t>
+  </si>
+  <si>
+    <t>court_dishonesty_laf</t>
+  </si>
+  <si>
+    <t>info_court_deadbeat.court_id;
+info_court_deadbeat.execute_case_no[0-0]='3848339'; info_court_deadbeat.execute_case_no[1-0]='3848338'</t>
+  </si>
+  <si>
+    <t>court_dishonesty_laf=1</t>
+  </si>
+  <si>
+    <t>info_court_arrearage.court_id;
+info_court_arrearage.contract_no[0-0]='828892922'; info_court_arrearage.contract_no[1-0]='828892922'</t>
+  </si>
+  <si>
+    <t>court_owed_owe_laf=0</t>
+  </si>
+  <si>
+    <t>info_court_arrearage.court_id;
+info_court_arrearage.contract_no[1-0]='160010001012'</t>
+  </si>
+  <si>
+    <t>info_court_arrearage.court_id;
+info_court_arrearage.contract_no[0-0]='160010001012'</t>
+  </si>
+  <si>
+    <t>info_court_arrearage.court_id;</t>
+  </si>
+  <si>
+    <t>court_limit_entry_laf</t>
+  </si>
+  <si>
+    <t>info_court_limited_entry_exit.court_id;
+info_court_limited_entry_exit.execute_no[0-0]='9928283354'; info_court_limited_entry_exit.execute_no[1-0]='99254'</t>
+  </si>
+  <si>
+    <t>court_limit_entry_laff=1</t>
+  </si>
+  <si>
+    <t>court_high_cons_laf</t>
+  </si>
+  <si>
+    <t>info_court_limit_hignspending.court_id;
+info_court_limit_hignspending.execute_case_no[0-0]='160010001010'; info_court_limit_hignspending.execute_case_no[1-0]='160010001012'</t>
+  </si>
+  <si>
+    <t>court_high_cons_laf=1</t>
+  </si>
+  <si>
+    <t>court_cri_sus_laf</t>
+  </si>
+  <si>
+    <t>info_court_criminal_suspect.court_id;
+info_court_criminal_suspect.case_no[0-0]='160010001010'; info_court_criminal_suspect.case_no[1-0]='160010001012'</t>
+  </si>
+  <si>
+    <t>court_cri_sus_laf=1</t>
+  </si>
+  <si>
+    <t>court_admi_vio_laf</t>
+  </si>
+  <si>
+    <t>info_court_administrative_violation.court_id;
+info_court_administrative_violation.case_no[0-0]='160010001010'; info_court_administrative_violation.case_no[1-0]='160010001012'</t>
+  </si>
+  <si>
+    <t>court_admi_vio_laf=1</t>
+  </si>
+  <si>
+    <t>court_judge_laf</t>
+  </si>
+  <si>
+    <t>info_court_judicative_pape.court_id;
+info_court_judicative_pape.case_no[0-0]='160010001010'; info_court_judicative_pape.case_no[1-0]='160010001012'</t>
+  </si>
+  <si>
+    <t>court_judge_laf=1</t>
+  </si>
+  <si>
+    <t>court_trial_proc_laf</t>
+  </si>
+  <si>
+    <t>info_court_trial_process.court_id;
+info_court_trial_process.case_no[0-0]='160010001010'; info_court_trial_process.case_no[1-0]='160010001012'</t>
+  </si>
+  <si>
+    <t>court_trial_proc_laf=1</t>
+  </si>
+  <si>
+    <t>court_tax_pay_laf</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.create_time[0]='2019-12-02 12:01:01';
+info_court.expired_at[0]='2020-12-01 12:01:01'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_court_taxable_abnormal_user.court_id;
+info_court_taxable_abnormal_user.confirm_date[0-0]='2020-01-01 12:12:12'; </t>
+  </si>
+  <si>
+    <t>court_tax_pay_laf=1</t>
+  </si>
+  <si>
+    <t>court_pub_info_laf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_court_excute_public.court_id;
+info_court_excute_public.execute_case_no[0-0]='382992922'; 
+info_court_excute_public.execute_case_no[1-0]='382922'; </t>
+  </si>
+  <si>
+    <t>court_pub_info_laf=1</t>
+  </si>
+  <si>
+    <t>court_tax_arrears_laf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_court_tax_arrears.court_id;
+info_court_tax_arrears.taxes_time[0-0]='2020-01-01 12:12:12'; </t>
+  </si>
+  <si>
+    <t>court_tax_arrears_laf=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_court_tax_arrears.court_id;
+info_court_tax_arrears.taxes_time[0-0]='2018-01-01 12:12:12'; </t>
+  </si>
+  <si>
+    <t>court_tax_arrears_laf=0</t>
   </si>
 </sst>
 </file>
@@ -818,7 +2029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,10 +2054,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1178,24 +2398,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.3359375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3359375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.53125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.3359375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -1237,7 +2458,7 @@
     </row>
     <row r="2" ht="70" spans="1:11">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>16001</v>
@@ -1248,19 +2469,484 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="42" spans="1:11">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="70" spans="1:11">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="42" spans="1:11">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="42" spans="1:11">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>16001</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:9">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:9">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:9">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:9">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:9">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:9">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/data/input/贷后报告-f16001.xlsx
+++ b/tests/data/input/贷后报告-f16001.xlsx
@@ -2401,9 +2401,9 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
